--- a/inetBankingV1/src/test/java/com/inetbanking/testData/LoginData.xlsx
+++ b/inetBankingV1/src/test/java/com/inetbanking/testData/LoginData.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AAnsari\eclipse-workspace2022\inetBankingV1\src\test\java\com\inetbanking\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AAnsari\git\inetBankingV1\src\test\java\com\inetbanking\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED7DAF0-753F-499A-B6D8-1C3E1B2D6493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF3BF55-C98C-44FF-B788-CB8A764040B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>username</t>
   </si>
@@ -56,13 +57,91 @@
   </si>
   <si>
     <t>EgUhAte</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>CustomerAddress</t>
+  </si>
+  <si>
+    <t>CustomerGender</t>
+  </si>
+  <si>
+    <t>CustomerDateOfBirth</t>
+  </si>
+  <si>
+    <t>CustomerCity</t>
+  </si>
+  <si>
+    <t>CustomerState</t>
+  </si>
+  <si>
+    <t>CustomerPin</t>
+  </si>
+  <si>
+    <t>CustomerTelephone</t>
+  </si>
+  <si>
+    <t>CustomerEmail</t>
+  </si>
+  <si>
+    <t>CustomerPassword</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>Assam</t>
+  </si>
+  <si>
+    <t>Amguri</t>
+  </si>
+  <si>
+    <t>CustomerLoginName</t>
+  </si>
+  <si>
+    <t>CustomerLoginPassword</t>
+  </si>
+  <si>
+    <t>Amir Ansari</t>
+  </si>
+  <si>
+    <t>ABCD EFGH</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Sivasagar</t>
+  </si>
+  <si>
+    <t>785681</t>
+  </si>
+  <si>
+    <t>65410000</t>
+  </si>
+  <si>
+    <t>03021965</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>aasdfdsf@exy.com</t>
+  </si>
+  <si>
+    <t>a23432www4@exy.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -81,6 +160,22 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,15 +219,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -447,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,4 +609,270 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD207269-08A5-4922-9351-652D5AB19C50}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.109375" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4">
+        <v>10152022</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="4">
+        <v>785680</v>
+      </c>
+      <c r="J2" s="4">
+        <v>6541215</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{0981AF61-487B-4FC0-8827-1E88AC8E10A4}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{3986D03A-2BB0-4A81-8A9F-503F60042455}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>